--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/10/seed1/result_data_RandomForest.xlsx
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.11600000000001</v>
+        <v>-21.09620000000001</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.86779999999999</v>
+        <v>-10.8062</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.890199999999998</v>
+        <v>-6.8777</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.79380000000001</v>
+        <v>-14.66300000000002</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.54010000000001</v>
+        <v>-21.58160000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.8717</v>
+        <v>-11.80969999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.001600000000003</v>
+        <v>-7.870400000000002</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.17409999999999</v>
+        <v>-20.19799999999998</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.9668</v>
+        <v>-12.0892</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.468399999999995</v>
+        <v>-8.421099999999992</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
